--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 27 - Spent grain transport/99RP274_S27_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 27 - Spent grain transport/99RP274_S27_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 27 - Spent grain transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529EA124-8D80-724A-8538-E88816B68282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBC7EA9-8F58-7A4A-9506-8C464A0A03CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="51200" windowHeight="21140" activeTab="4" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="25560" windowHeight="21600" firstSheet="1" activeTab="4" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="36">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -366,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +418,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -686,6 +692,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9396,7 +9403,7 @@
   <dimension ref="A1:P404"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9514,6 +9521,9 @@
       </c>
       <c r="I3" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>27</v>
       </c>
       <c r="N3" s="11" t="str">
         <f>'00 Value Source'!H1</f>
@@ -33436,14 +33446,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Value: Massafra -   | Bergamo - 001: Target SGS Nr</v>
+        <v>-- Value: Massafra -  001: Target SGS Nr | Bergamo - 001: Target SGS Nr</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$3="NULL","",IF(ISBLANK('01 Value Comparison'!$K$3),"",'01 Value Comparison'!$K$3))</f>
-        <v/>
+        <v>001: Target SGS Nr</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
